--- a/database/industries/dode/shesadaf/eps.xlsx
+++ b/database/industries/dode/shesadaf/eps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -34,6 +34,9 @@
     <t>capital_now</t>
   </si>
   <si>
+    <t>1400</t>
+  </si>
+  <si>
     <t>1399</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>1396</t>
+  </si>
+  <si>
+    <t>1401/05/22</t>
   </si>
   <si>
     <t>1400/04/31</t>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,13 +450,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>967</v>
+        <v>3137</v>
       </c>
       <c r="D2">
-        <v>680</v>
+        <v>2150</v>
       </c>
       <c r="E2">
         <v>700000</v>
@@ -464,16 +470,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>2778</v>
+        <v>967</v>
       </c>
       <c r="D3">
-        <v>2770</v>
+        <v>680</v>
       </c>
       <c r="E3">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="F3">
         <v>700000</v>
@@ -484,13 +490,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>3857</v>
+        <v>2778</v>
       </c>
       <c r="D4">
-        <v>3830</v>
+        <v>2770</v>
       </c>
       <c r="E4">
         <v>200000</v>
@@ -504,18 +510,38 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
+        <v>3857</v>
+      </c>
+      <c r="D5">
+        <v>3830</v>
+      </c>
+      <c r="E5">
+        <v>200000</v>
+      </c>
+      <c r="F5">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>1126</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1030</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>169956</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>700000</v>
       </c>
     </row>
